--- a/共有用フォルダー/04_画面遷移図_そばうどん.xlsx
+++ b/共有用フォルダー/04_画面遷移図_そばうどん.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\共有用フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AF8E07-7C99-4213-9E34-32D7EE042775}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF54B1F-B586-4B99-AAD3-9EAAE6032EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="340" windowWidth="16610" windowHeight="9860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※ホーム・カレンダー・スライドショー・掲示板・ヘルプ・ログアウト間の移動はタブでできるものとする。</t>
+    <t>※登録・カレンダー・スライドショー・掲示板・ヘルプ・プロフィール間の移動はタブでできるものとする。</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
     <rPh sb="32" eb="33">
       <t>カン</t>
     </rPh>
@@ -1607,7 +1610,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>プロフィール編集</a:t>
+            <a:t>プロフィール</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1707,6 +1710,285 @@
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>372138</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>78287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>193544</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>78287</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F81BE03-465A-4247-ABEE-49B377B6B8F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7130974" y="7463424"/>
+          <a:ext cx="512947" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>378390</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>90591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>379978</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>78288</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2F76155-BD40-40C5-9694-B92EF84BB76C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7137226" y="6966858"/>
+          <a:ext cx="1588" cy="496567"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>208767</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>156574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>212845</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>78287</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CBD3E65-57EA-400D-876A-07698517F3A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7659144" y="7032841"/>
+          <a:ext cx="4078" cy="430583"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>339246</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>91596</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>154836</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B45328C-675A-43DB-BC61-E0DEA1F5846B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="339246" y="2896644"/>
+          <a:ext cx="1892213" cy="741993"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新規登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254565</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>258219</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91336</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9EDDA11-494A-4383-A76D-6B02744FB1E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1285353" y="2115942"/>
+          <a:ext cx="3654" cy="780702"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -2400,18 +2682,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="3" width="14.6328125" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2421,7 +2703,7 @@
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2431,19 +2713,19 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -2451,7 +2733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="22:22" x14ac:dyDescent="0.15">
       <c r="V26" s="5"/>
     </row>
   </sheetData>
@@ -2470,7 +2752,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2486,7 +2768,7 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/共有用フォルダー/04_画面遷移図_そばうどん.xlsx
+++ b/共有用フォルダー/04_画面遷移図_そばうどん.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\共有用フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF54B1F-B586-4B99-AAD3-9EAAE6032EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2951A02-87A7-4A84-B5C4-8A9E89BA95D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -85,6 +85,34 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※登録・カレンダー・更新・スライドショー・閲覧・他ユーザー情報の6つは広告バナーがついていて、リンク先のseplusのサイトに遷移する。</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>コウコク</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -175,7 +203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -193,6 +221,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2682,18 +2713,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="3" width="14.6328125" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2703,7 +2734,7 @@
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2713,19 +2744,19 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -2733,7 +2764,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="22:22" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V26" s="5"/>
     </row>
   </sheetData>
@@ -2752,7 +2788,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2768,7 +2804,7 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/共有用フォルダー/04_画面遷移図_そばうどん.xlsx
+++ b/共有用フォルダー/04_画面遷移図_そばうどん.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\共有用フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2951A02-87A7-4A84-B5C4-8A9E89BA95D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8283FBAE-5EB2-41FB-AF93-D72EA6579000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,23 @@
     <sheet name="アイテム" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -116,6 +127,19 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>※エラー画面は作らず、すべてアラートで表示する。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -161,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -197,13 +221,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -222,7 +257,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2713,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2755,6 +2793,11 @@
         <v>5</v>
       </c>
       <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
